--- a/data/trans_dic/P13A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece COVID de forma grave</t>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 46,76</t>
+          <t>0,16; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 26,67</t>
+          <t>0,29; 1,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,4; 20,34</t>
+          <t>1,65; 4,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,38</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,74</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 16,5</t>
+          <t>0,09; 1,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 26,82</t>
+          <t>0,88; 2,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 22,3</t>
+          <t>1,43; 4,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 67,17</t>
+          <t>0,05; 0,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,1</t>
+          <t>0,0; 0,44</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 20,18</t>
+          <t>0,17; 0,8</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 23,34</t>
+          <t>0,76; 1,88</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 18,44</t>
+          <t>1,77; 3,52</t>
         </is>
       </c>
     </row>
@@ -850,32 +851,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -885,42 +886,42 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,6</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,06</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,22</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 18,47</t>
+          <t>0,35; 1,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 26,98</t>
+          <t>0,97; 4,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 37,7</t>
+          <t>0,13; 1,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,38</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 31,23</t>
+          <t>1,72; 6,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 78,59</t>
+          <t>0,07; 0,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,19</t>
+          <t>0,0; 0,45</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 26,25</t>
+          <t>0,13; 1,05</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,11</t>
+          <t>0,27; 1,16</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 24,29</t>
+          <t>1,61; 4,66</t>
         </is>
       </c>
     </row>
@@ -1020,72 +1021,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,75%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1113,12 +1114,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1138,12 +1139,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,89</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 41,56</t>
+          <t>0,42; 4,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1163,12 +1164,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,36</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 23,32</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 76,99</t>
+          <t>0,01; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,88</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 25,75</t>
+          <t>0,14; 0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 16,27</t>
+          <t>0,41; 1,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,72</t>
+          <t>1,74; 3,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 72,29</t>
+          <t>0,06; 0,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,95</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 18,65</t>
+          <t>0,19; 0,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,73</t>
+          <t>0,69; 1,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,68</t>
+          <t>1,77; 4,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 61,92</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 44,97</t>
+          <t>0,03; 0,29</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 18,69</t>
+          <t>0,23; 0,68</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,26</t>
+          <t>0,64; 1,33</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,0</t>
+          <t>1,94; 3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2265</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12817</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30344</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5780</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6215</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13876</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>43161</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11937</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10315</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11531</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2575; 20547</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4735; 26086</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3778; 9467</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10041</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1566; 18212</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16023; 49866</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3390; 9677</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1723; 18066</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15373</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5939; 27932</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26432; 65052</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8269; 16397</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4504</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13197</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1743</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7435</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11939</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16788</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18017</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10834</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14024</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4874; 27522</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>698; 3478</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11932</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1780; 22258</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13131</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1129; 4349</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2056; 22239</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12438</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3573; 28813</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7572; 31924</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2213; 6423</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2680</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6174</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2680</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6174</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15619</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1726; 18276</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14628</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1748; 17286</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12526</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26014</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7900</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8122</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15969</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40108</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8110</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>28495</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>66122</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>16010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>252; 18395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16395</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4691; 26791</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14055; 44150</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5231; 11714</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2016; 19881</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10100</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6762; 30823</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24804; 59188</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5363; 12126</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5767; 29211</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2007; 20289</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15942; 48349</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45061; 94032</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>11728; 21127</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>